--- a/REGULAR/OJT/NEW DONE/MARCIAL, RUSTICO.xlsx
+++ b/REGULAR/OJT/NEW DONE/MARCIAL, RUSTICO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAVONITALLA FAMILY\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="117">
   <si>
     <t>PERIOD</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>8/16-20</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -759,6 +768,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,9 +806,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,7 +1255,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1298,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1362,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1422,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1488,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1542,7 +1551,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1649,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1708,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1764,7 +1773,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1807,7 +1816,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +1891,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2077,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2143,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2192,7 +2201,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2267,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2323,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2398,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2432,7 +2441,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2507,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2554,7 +2563,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2661,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2715,7 +2724,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3156,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3161,85 +3170,85 @@
   </sheetPr>
   <dimension ref="A2:K500"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A291" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A292" sqref="A292"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A262"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D325" sqref="D325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3247,7 +3256,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3260,24 +3269,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3321,7 +3330,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>189.66700000000003</v>
+        <v>228.41700000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3331,13 +3340,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>216.66700000000003</v>
+        <v>275.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3358,7 +3367,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>44</v>
       </c>
@@ -3378,7 +3387,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3398,8 +3407,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="20"/>
@@ -3416,7 +3425,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
         <v>47</v>
       </c>
@@ -3440,8 +3449,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B15" s="20"/>
@@ -3458,7 +3467,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>47</v>
       </c>
@@ -3482,8 +3491,8 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="20"/>
@@ -3500,7 +3509,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36161</v>
       </c>
@@ -3520,7 +3529,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36192</v>
       </c>
@@ -3540,7 +3549,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36220</v>
       </c>
@@ -3560,7 +3569,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36251</v>
       </c>
@@ -3580,7 +3589,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36281</v>
       </c>
@@ -3604,7 +3613,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>36312</v>
       </c>
@@ -3624,7 +3633,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36342</v>
       </c>
@@ -3644,7 +3653,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>36373</v>
       </c>
@@ -3670,7 +3679,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36404</v>
       </c>
@@ -3690,7 +3699,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36434</v>
       </c>
@@ -3710,7 +3719,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36465</v>
       </c>
@@ -3730,7 +3739,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36495</v>
       </c>
@@ -3750,8 +3759,8 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="60" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="20"/>
@@ -3772,7 +3781,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36526</v>
       </c>
@@ -3792,7 +3801,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36557</v>
       </c>
@@ -3812,7 +3821,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36586</v>
       </c>
@@ -3832,7 +3841,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>36617</v>
       </c>
@@ -3852,7 +3861,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36647</v>
       </c>
@@ -3872,7 +3881,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36678</v>
       </c>
@@ -3892,7 +3901,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -3912,7 +3921,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -3932,7 +3941,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -3952,7 +3961,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -3972,7 +3981,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -3992,7 +4001,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36861</v>
       </c>
@@ -4016,8 +4025,8 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="60" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="20"/>
@@ -4038,7 +4047,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36892</v>
       </c>
@@ -4058,7 +4067,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36923</v>
       </c>
@@ -4078,7 +4087,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36951</v>
       </c>
@@ -4098,7 +4107,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36982</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4142,7 +4151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>37012</v>
       </c>
@@ -4162,7 +4171,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>37043</v>
       </c>
@@ -4182,7 +4191,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37073</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>37104</v>
       </c>
@@ -4228,7 +4237,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>37135</v>
       </c>
@@ -4248,7 +4257,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37165</v>
       </c>
@@ -4268,7 +4277,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>37196</v>
       </c>
@@ -4294,7 +4303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37226</v>
       </c>
@@ -4314,8 +4323,8 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="60" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="48" t="s">
         <v>103</v>
       </c>
       <c r="B57" s="20"/>
@@ -4336,7 +4345,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>37257</v>
       </c>
@@ -4356,7 +4365,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>37288</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37316</v>
       </c>
@@ -4400,7 +4409,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37347</v>
       </c>
@@ -4420,7 +4429,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>37377</v>
       </c>
@@ -4440,7 +4449,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>37408</v>
       </c>
@@ -4460,7 +4469,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37438</v>
       </c>
@@ -4480,7 +4489,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>37469</v>
       </c>
@@ -4500,7 +4509,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>37500</v>
       </c>
@@ -4520,7 +4529,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37530</v>
       </c>
@@ -4540,7 +4549,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>37561</v>
       </c>
@@ -4560,7 +4569,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37591</v>
       </c>
@@ -4584,8 +4593,8 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="60" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="48" t="s">
         <v>101</v>
       </c>
       <c r="B70" s="20"/>
@@ -4606,7 +4615,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37622</v>
       </c>
@@ -4626,7 +4635,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37653</v>
       </c>
@@ -4646,7 +4655,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37681</v>
       </c>
@@ -4666,7 +4675,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37712</v>
       </c>
@@ -4690,7 +4699,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37742</v>
       </c>
@@ -4710,7 +4719,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37773</v>
       </c>
@@ -4730,7 +4739,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37803</v>
       </c>
@@ -4750,7 +4759,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37834</v>
       </c>
@@ -4770,7 +4779,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37865</v>
       </c>
@@ -4790,7 +4799,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37895</v>
       </c>
@@ -4810,7 +4819,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37926</v>
       </c>
@@ -4830,7 +4839,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37956</v>
       </c>
@@ -4850,8 +4859,8 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="60" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="48" t="s">
         <v>100</v>
       </c>
       <c r="B83" s="20"/>
@@ -4872,7 +4881,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37987</v>
       </c>
@@ -4892,7 +4901,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>38018</v>
       </c>
@@ -4912,7 +4921,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>38047</v>
       </c>
@@ -4932,7 +4941,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>38078</v>
       </c>
@@ -4952,7 +4961,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>38108</v>
       </c>
@@ -4972,7 +4981,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>38139</v>
       </c>
@@ -4992,7 +5001,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>38169</v>
       </c>
@@ -5012,7 +5021,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>38200</v>
       </c>
@@ -5032,7 +5041,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>38231</v>
       </c>
@@ -5052,7 +5061,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>38261</v>
       </c>
@@ -5072,7 +5081,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>38292</v>
       </c>
@@ -5092,7 +5101,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>38322</v>
       </c>
@@ -5116,8 +5125,8 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="60" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="48" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="20"/>
@@ -5138,7 +5147,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>38353</v>
       </c>
@@ -5160,7 +5169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>38384</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>38412</v>
       </c>
@@ -5202,7 +5211,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>38443</v>
       </c>
@@ -5222,7 +5231,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>38473</v>
       </c>
@@ -5248,7 +5257,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>38504</v>
       </c>
@@ -5268,7 +5277,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>38534</v>
       </c>
@@ -5288,7 +5297,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>38565</v>
       </c>
@@ -5308,7 +5317,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>38596</v>
       </c>
@@ -5328,7 +5337,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>38626</v>
       </c>
@@ -5348,7 +5357,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>38657</v>
       </c>
@@ -5368,7 +5377,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>38687</v>
       </c>
@@ -5388,8 +5397,8 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="60" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="48" t="s">
         <v>92</v>
       </c>
       <c r="B109" s="20"/>
@@ -5410,7 +5419,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>38718</v>
       </c>
@@ -5430,7 +5439,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>38749</v>
       </c>
@@ -5450,7 +5459,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38777</v>
       </c>
@@ -5470,7 +5479,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>38808</v>
       </c>
@@ -5490,7 +5499,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38838</v>
       </c>
@@ -5510,7 +5519,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38869</v>
       </c>
@@ -5530,7 +5539,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38899</v>
       </c>
@@ -5550,7 +5559,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38930</v>
       </c>
@@ -5570,7 +5579,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38961</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>93</v>
@@ -5618,7 +5627,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38991</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>39022</v>
       </c>
@@ -5664,7 +5673,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>39052</v>
       </c>
@@ -5684,8 +5693,8 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="60" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="48" t="s">
         <v>89</v>
       </c>
       <c r="B123" s="20"/>
@@ -5706,7 +5715,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>39083</v>
       </c>
@@ -5726,7 +5735,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>39114</v>
       </c>
@@ -5746,7 +5755,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>39142</v>
       </c>
@@ -5766,7 +5775,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>39173</v>
       </c>
@@ -5786,7 +5795,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>39203</v>
       </c>
@@ -5806,7 +5815,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>39234</v>
       </c>
@@ -5826,7 +5835,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>39264</v>
       </c>
@@ -5846,7 +5855,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>39295</v>
       </c>
@@ -5866,7 +5875,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>39326</v>
       </c>
@@ -5886,7 +5895,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>39356</v>
       </c>
@@ -5906,7 +5915,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>39387</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>39417</v>
       </c>
@@ -5950,8 +5959,8 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="60" t="s">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B136" s="20"/>
@@ -5972,7 +5981,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>39448</v>
       </c>
@@ -5992,7 +6001,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>39479</v>
       </c>
@@ -6018,7 +6027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>39508</v>
       </c>
@@ -6038,7 +6047,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>39539</v>
       </c>
@@ -6058,7 +6067,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>39569</v>
       </c>
@@ -6082,7 +6091,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>39600</v>
       </c>
@@ -6102,7 +6111,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>39630</v>
       </c>
@@ -6122,7 +6131,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>39661</v>
       </c>
@@ -6142,7 +6151,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>39692</v>
       </c>
@@ -6162,7 +6171,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>39722</v>
       </c>
@@ -6182,7 +6191,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>39753</v>
       </c>
@@ -6202,7 +6211,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>39783</v>
       </c>
@@ -6226,8 +6235,8 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="60" t="s">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="48" t="s">
         <v>87</v>
       </c>
       <c r="B149" s="20"/>
@@ -6248,7 +6257,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>39814</v>
       </c>
@@ -6268,7 +6277,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39845</v>
       </c>
@@ -6288,7 +6297,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39873</v>
       </c>
@@ -6308,7 +6317,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>39904</v>
       </c>
@@ -6328,7 +6337,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39934</v>
       </c>
@@ -6348,7 +6357,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39965</v>
       </c>
@@ -6368,7 +6377,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39995</v>
       </c>
@@ -6388,7 +6397,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>40026</v>
       </c>
@@ -6408,7 +6417,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>40057</v>
       </c>
@@ -6428,7 +6437,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>40087</v>
       </c>
@@ -6448,7 +6457,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>40118</v>
       </c>
@@ -6468,7 +6477,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>40148</v>
       </c>
@@ -6492,8 +6501,8 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A162" s="60" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="48" t="s">
         <v>86</v>
       </c>
       <c r="B162" s="20"/>
@@ -6514,7 +6523,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>40179</v>
       </c>
@@ -6534,7 +6543,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>40210</v>
       </c>
@@ -6554,7 +6563,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>40238</v>
       </c>
@@ -6574,7 +6583,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>40269</v>
       </c>
@@ -6594,7 +6603,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>40299</v>
       </c>
@@ -6614,7 +6623,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>40330</v>
       </c>
@@ -6634,7 +6643,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>40360</v>
       </c>
@@ -6654,7 +6663,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>40391</v>
       </c>
@@ -6674,7 +6683,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>40422</v>
       </c>
@@ -6694,7 +6703,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>40452</v>
       </c>
@@ -6714,7 +6723,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>40483</v>
       </c>
@@ -6734,7 +6743,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>40513</v>
       </c>
@@ -6758,8 +6767,8 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A175" s="60" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="48" t="s">
         <v>84</v>
       </c>
       <c r="B175" s="20"/>
@@ -6780,7 +6789,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>40544</v>
       </c>
@@ -6800,7 +6809,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>40575</v>
       </c>
@@ -6820,7 +6829,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>40603</v>
       </c>
@@ -6840,7 +6849,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>40634</v>
       </c>
@@ -6860,7 +6869,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>40664</v>
       </c>
@@ -6880,7 +6889,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>40695</v>
       </c>
@@ -6900,7 +6909,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>40725</v>
       </c>
@@ -6920,7 +6929,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>40756</v>
       </c>
@@ -6940,7 +6949,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>40787</v>
       </c>
@@ -6960,7 +6969,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>40817</v>
       </c>
@@ -6980,7 +6989,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>40848</v>
       </c>
@@ -7006,7 +7015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40878</v>
       </c>
@@ -7026,8 +7035,8 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A188" s="60" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="48" t="s">
         <v>80</v>
       </c>
       <c r="B188" s="20"/>
@@ -7048,7 +7057,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40909</v>
       </c>
@@ -7068,7 +7077,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40940</v>
       </c>
@@ -7088,7 +7097,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40969</v>
       </c>
@@ -7108,7 +7117,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>41000</v>
       </c>
@@ -7134,7 +7143,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>82</v>
@@ -7154,7 +7163,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>41030</v>
       </c>
@@ -7174,7 +7183,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>41061</v>
       </c>
@@ -7194,7 +7203,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>41091</v>
       </c>
@@ -7214,7 +7223,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>41122</v>
       </c>
@@ -7234,7 +7243,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>41153</v>
       </c>
@@ -7254,7 +7263,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>41183</v>
       </c>
@@ -7274,7 +7283,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>41214</v>
       </c>
@@ -7294,7 +7303,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>41244</v>
       </c>
@@ -7314,8 +7323,8 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A202" s="60" t="s">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="48" t="s">
         <v>76</v>
       </c>
       <c r="B202" s="20"/>
@@ -7336,7 +7345,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>41275</v>
       </c>
@@ -7362,7 +7371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>41306</v>
       </c>
@@ -7382,7 +7391,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>41334</v>
       </c>
@@ -7402,7 +7411,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>41365</v>
       </c>
@@ -7428,7 +7437,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>41395</v>
       </c>
@@ -7448,7 +7457,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>41426</v>
       </c>
@@ -7468,7 +7477,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>41456</v>
       </c>
@@ -7488,7 +7497,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>41487</v>
       </c>
@@ -7508,7 +7517,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>41518</v>
       </c>
@@ -7528,7 +7537,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>41548</v>
       </c>
@@ -7548,7 +7557,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>41579</v>
       </c>
@@ -7568,7 +7577,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>41609</v>
       </c>
@@ -7588,8 +7597,8 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A215" s="60" t="s">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="48" t="s">
         <v>73</v>
       </c>
       <c r="B215" s="20"/>
@@ -7610,7 +7619,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>41640</v>
       </c>
@@ -7630,7 +7639,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>41671</v>
       </c>
@@ -7650,7 +7659,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>41699</v>
       </c>
@@ -7670,7 +7679,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>41730</v>
       </c>
@@ -7690,7 +7699,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>41760</v>
       </c>
@@ -7710,7 +7719,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>41791</v>
       </c>
@@ -7730,7 +7739,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41821</v>
       </c>
@@ -7750,7 +7759,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41852</v>
       </c>
@@ -7776,7 +7785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41883</v>
       </c>
@@ -7796,7 +7805,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41913</v>
       </c>
@@ -7816,7 +7825,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41944</v>
       </c>
@@ -7836,7 +7845,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41974</v>
       </c>
@@ -7856,8 +7865,8 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A228" s="60" t="s">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B228" s="20"/>
@@ -7878,7 +7887,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>42005</v>
       </c>
@@ -7898,7 +7907,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>42036</v>
       </c>
@@ -7918,7 +7927,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>42064</v>
       </c>
@@ -7938,7 +7947,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>42095</v>
       </c>
@@ -7958,7 +7967,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>42125</v>
       </c>
@@ -7978,7 +7987,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>42156</v>
       </c>
@@ -7998,7 +8007,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>42186</v>
       </c>
@@ -8024,7 +8033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>42217</v>
       </c>
@@ -8044,7 +8053,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>42248</v>
       </c>
@@ -8064,7 +8073,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>42278</v>
       </c>
@@ -8084,7 +8093,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>42309</v>
       </c>
@@ -8110,7 +8119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>42339</v>
       </c>
@@ -8134,8 +8143,8 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="60" t="s">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="48" t="s">
         <v>56</v>
       </c>
       <c r="B241" s="20"/>
@@ -8156,7 +8165,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>42370</v>
       </c>
@@ -8176,7 +8185,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>42401</v>
       </c>
@@ -8196,7 +8205,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>42430</v>
       </c>
@@ -8216,7 +8225,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>42461</v>
       </c>
@@ -8236,7 +8245,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>42491</v>
       </c>
@@ -8256,7 +8265,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>42522</v>
       </c>
@@ -8276,7 +8285,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>42552</v>
       </c>
@@ -8296,7 +8305,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>42583</v>
       </c>
@@ -8316,7 +8325,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>42614</v>
       </c>
@@ -8336,7 +8345,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>42644</v>
       </c>
@@ -8358,7 +8367,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>66</v>
@@ -8380,7 +8389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>42675</v>
       </c>
@@ -8400,7 +8409,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>42705</v>
       </c>
@@ -8426,8 +8435,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A255" s="60" t="s">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="48" t="s">
         <v>55</v>
       </c>
       <c r="B255" s="20"/>
@@ -8448,7 +8457,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>42736</v>
       </c>
@@ -8468,7 +8477,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>42767</v>
       </c>
@@ -8488,7 +8497,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>42795</v>
       </c>
@@ -8508,7 +8517,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42826</v>
       </c>
@@ -8528,7 +8537,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42856</v>
       </c>
@@ -8548,7 +8557,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42887</v>
       </c>
@@ -8568,7 +8577,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42917</v>
       </c>
@@ -8594,7 +8603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>57</v>
@@ -8616,7 +8625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>59</v>
@@ -8638,7 +8647,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42948</v>
       </c>
@@ -8658,7 +8667,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42979</v>
       </c>
@@ -8678,7 +8687,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>43009</v>
       </c>
@@ -8698,7 +8707,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>43040</v>
       </c>
@@ -8718,7 +8727,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>43070</v>
       </c>
@@ -8742,8 +8751,8 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A270" s="60" t="s">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="48" t="s">
         <v>54</v>
       </c>
       <c r="B270" s="20"/>
@@ -8764,7 +8773,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>43101</v>
       </c>
@@ -8784,7 +8793,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43132</v>
       </c>
@@ -8804,7 +8813,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>43160</v>
       </c>
@@ -8824,7 +8833,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>43191</v>
       </c>
@@ -8844,7 +8853,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>43221</v>
       </c>
@@ -8864,7 +8873,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>43252</v>
       </c>
@@ -8884,7 +8893,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>43282</v>
       </c>
@@ -8904,7 +8913,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>43313</v>
       </c>
@@ -8924,7 +8933,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>43344</v>
       </c>
@@ -8944,7 +8953,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>43374</v>
       </c>
@@ -8964,7 +8973,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>43405</v>
       </c>
@@ -8984,7 +8993,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>43435</v>
       </c>
@@ -9008,8 +9017,8 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A283" s="60" t="s">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="48" t="s">
         <v>53</v>
       </c>
       <c r="B283" s="20"/>
@@ -9030,7 +9039,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>43466</v>
       </c>
@@ -9050,7 +9059,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>43497</v>
       </c>
@@ -9070,7 +9079,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>43525</v>
       </c>
@@ -9090,7 +9099,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>43556</v>
       </c>
@@ -9110,7 +9119,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>43586</v>
       </c>
@@ -9130,7 +9139,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>43617</v>
       </c>
@@ -9150,7 +9159,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>43647</v>
       </c>
@@ -9170,7 +9179,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>43678</v>
       </c>
@@ -9190,7 +9199,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>43709</v>
       </c>
@@ -9210,7 +9219,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>43739</v>
       </c>
@@ -9230,7 +9239,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43770</v>
       </c>
@@ -9250,7 +9259,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43800</v>
       </c>
@@ -9274,8 +9283,8 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A296" s="60" t="s">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="48" t="s">
         <v>51</v>
       </c>
       <c r="B296" s="20"/>
@@ -9296,7 +9305,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43831</v>
       </c>
@@ -9318,184 +9327,234 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A298" s="40"/>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <v>43862</v>
+      </c>
       <c r="B298" s="20"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A299" s="40"/>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <v>43891</v>
+      </c>
       <c r="B299" s="20"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H299" s="39"/>
       <c r="I299" s="9"/>
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A300" s="40"/>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
+        <v>43922</v>
+      </c>
       <c r="B300" s="20"/>
-      <c r="C300" s="13"/>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D300" s="39"/>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G300" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H300" s="39"/>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A301" s="40"/>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="40">
+        <v>43952</v>
+      </c>
       <c r="B301" s="20"/>
-      <c r="C301" s="13"/>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D301" s="39"/>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A302" s="40"/>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="40">
+        <v>43983</v>
+      </c>
       <c r="B302" s="20"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A303" s="40"/>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="40">
+        <v>44013</v>
+      </c>
       <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A304" s="40"/>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="40">
+        <v>44044</v>
+      </c>
       <c r="B304" s="20"/>
-      <c r="C304" s="13"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A305" s="40"/>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="40">
+        <v>44075</v>
+      </c>
       <c r="B305" s="20"/>
-      <c r="C305" s="13"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D305" s="39"/>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H305" s="39"/>
       <c r="I305" s="9"/>
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A306" s="40"/>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="40">
+        <v>44105</v>
+      </c>
       <c r="B306" s="20"/>
-      <c r="C306" s="13"/>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H306" s="39"/>
       <c r="I306" s="9"/>
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A307" s="40"/>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40">
+        <v>44136</v>
+      </c>
       <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A308" s="40"/>
-      <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
-      <c r="D308" s="39"/>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B308" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D308" s="39">
+        <v>5</v>
+      </c>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A309" s="40"/>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="48" t="s">
+        <v>114</v>
+      </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -9510,200 +9569,254 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="40"/>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40">
+        <v>43831</v>
+      </c>
       <c r="B310" s="20"/>
-      <c r="C310" s="13"/>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G310" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="40"/>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="40">
+        <v>43862</v>
+      </c>
       <c r="B311" s="20"/>
-      <c r="C311" s="13"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D311" s="39"/>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A312" s="40"/>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="40">
+        <v>43891</v>
+      </c>
       <c r="B312" s="20"/>
-      <c r="C312" s="13"/>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G312" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A313" s="40"/>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="40">
+        <v>43922</v>
+      </c>
       <c r="B313" s="20"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A314" s="40"/>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="40">
+        <v>43952</v>
+      </c>
       <c r="B314" s="20"/>
-      <c r="C314" s="13"/>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="40"/>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="40">
+        <v>43983</v>
+      </c>
       <c r="B315" s="20"/>
-      <c r="C315" s="13"/>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H315" s="39"/>
       <c r="I315" s="9"/>
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A316" s="40"/>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="40">
+        <v>44013</v>
+      </c>
       <c r="B316" s="20"/>
-      <c r="C316" s="13"/>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G316" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H316" s="39"/>
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A317" s="40"/>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="40">
+        <v>44044</v>
+      </c>
       <c r="B317" s="20"/>
-      <c r="C317" s="13"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D317" s="39"/>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A318" s="40"/>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="40">
+        <v>44075</v>
+      </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A319" s="40"/>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="40">
+        <v>44105</v>
+      </c>
       <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A320" s="40"/>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="40">
+        <v>44136</v>
+      </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A321" s="40"/>
-      <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
-      <c r="D321" s="39"/>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B321" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D321" s="39">
+        <v>5</v>
+      </c>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A322" s="40"/>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="48" t="s">
+        <v>115</v>
+      </c>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
       <c r="D322" s="39"/>
@@ -9718,200 +9831,254 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A323" s="40"/>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="40">
+        <v>43831</v>
+      </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A324" s="40"/>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="40">
+        <v>43862</v>
+      </c>
       <c r="B324" s="20"/>
-      <c r="C324" s="13"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D324" s="39"/>
       <c r="E324" s="9"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H324" s="39"/>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A325" s="40"/>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="40">
+        <v>43891</v>
+      </c>
       <c r="B325" s="20"/>
-      <c r="C325" s="13"/>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A326" s="40"/>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" s="40">
+        <v>43922</v>
+      </c>
       <c r="B326" s="20"/>
-      <c r="C326" s="13"/>
+      <c r="C326" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D326" s="39"/>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G326" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A327" s="40"/>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" s="40">
+        <v>43952</v>
+      </c>
       <c r="B327" s="20"/>
-      <c r="C327" s="13"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D327" s="39"/>
       <c r="E327" s="9"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H327" s="39"/>
       <c r="I327" s="9"/>
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A328" s="40"/>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" s="40">
+        <v>43983</v>
+      </c>
       <c r="B328" s="20"/>
-      <c r="C328" s="13"/>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D328" s="39"/>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A329" s="40"/>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" s="40">
+        <v>44013</v>
+      </c>
       <c r="B329" s="20"/>
-      <c r="C329" s="13"/>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D329" s="39"/>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A330" s="40"/>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" s="40">
+        <v>44044</v>
+      </c>
       <c r="B330" s="20"/>
-      <c r="C330" s="13"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D330" s="39"/>
       <c r="E330" s="9"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H330" s="39"/>
       <c r="I330" s="9"/>
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A331" s="40"/>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" s="40">
+        <v>44075</v>
+      </c>
       <c r="B331" s="20"/>
-      <c r="C331" s="13"/>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D331" s="39"/>
       <c r="E331" s="9"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H331" s="39"/>
       <c r="I331" s="9"/>
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A332" s="40"/>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" s="40">
+        <v>44105</v>
+      </c>
       <c r="B332" s="20"/>
-      <c r="C332" s="13"/>
+      <c r="C332" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D332" s="39"/>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G332" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A333" s="40"/>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" s="40">
+        <v>44136</v>
+      </c>
       <c r="B333" s="20"/>
-      <c r="C333" s="13"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D333" s="39"/>
       <c r="E333" s="9"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H333" s="39"/>
       <c r="I333" s="9"/>
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A334" s="40"/>
-      <c r="B334" s="20"/>
-      <c r="C334" s="13"/>
-      <c r="D334" s="39"/>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B334" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D334" s="39">
+        <v>5</v>
+      </c>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A335" s="40"/>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" s="48" t="s">
+        <v>116</v>
+      </c>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
       <c r="D335" s="39"/>
@@ -9926,199 +10093,251 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A336" s="40"/>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" s="40">
+        <v>43831</v>
+      </c>
       <c r="B336" s="20"/>
-      <c r="C336" s="13"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D336" s="39"/>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="40"/>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="40">
+        <v>43862</v>
+      </c>
       <c r="B337" s="20"/>
-      <c r="C337" s="13"/>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D337" s="39"/>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A338" s="40"/>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" s="40">
+        <v>43891</v>
+      </c>
       <c r="B338" s="20"/>
-      <c r="C338" s="13"/>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D338" s="39"/>
       <c r="E338" s="9"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H338" s="39"/>
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A339" s="40"/>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" s="40">
+        <v>43922</v>
+      </c>
       <c r="B339" s="20"/>
-      <c r="C339" s="13"/>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D339" s="39"/>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A340" s="40"/>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" s="40">
+        <v>43952</v>
+      </c>
       <c r="B340" s="20"/>
-      <c r="C340" s="13"/>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D340" s="39"/>
       <c r="E340" s="9"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H340" s="39"/>
       <c r="I340" s="9"/>
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A341" s="40"/>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" s="40">
+        <v>43983</v>
+      </c>
       <c r="B341" s="20"/>
-      <c r="C341" s="13"/>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D341" s="39"/>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A342" s="40"/>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" s="40">
+        <v>44013</v>
+      </c>
       <c r="B342" s="20"/>
-      <c r="C342" s="13"/>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D342" s="39"/>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A343" s="40"/>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
+        <v>44044</v>
+      </c>
       <c r="B343" s="20"/>
-      <c r="C343" s="13"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D343" s="39"/>
       <c r="E343" s="9"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G343" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H343" s="39"/>
       <c r="I343" s="9"/>
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A344" s="40"/>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
+        <v>44075</v>
+      </c>
       <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A345" s="40"/>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
+        <v>44105</v>
+      </c>
       <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H345" s="39"/>
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A346" s="40"/>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
+        <v>44136</v>
+      </c>
       <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A347" s="40"/>
-      <c r="B347" s="20"/>
-      <c r="C347" s="13"/>
-      <c r="D347" s="39"/>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D347" s="39">
+        <v>5</v>
+      </c>
       <c r="E347" s="9"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H347" s="39"/>
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -10134,7 +10353,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -10150,7 +10369,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -10166,7 +10385,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -10182,7 +10401,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -10198,7 +10417,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -10214,7 +10433,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10230,7 +10449,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -10246,7 +10465,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10262,7 +10481,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10278,7 +10497,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10294,7 +10513,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10310,7 +10529,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10326,7 +10545,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10342,7 +10561,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10358,7 +10577,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10374,7 +10593,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10390,7 +10609,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10406,7 +10625,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10422,7 +10641,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10438,7 +10657,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10454,7 +10673,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10470,7 +10689,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10486,7 +10705,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10502,7 +10721,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10518,7 +10737,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10534,7 +10753,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10550,7 +10769,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10566,7 +10785,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10582,7 +10801,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10598,7 +10817,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10614,7 +10833,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10630,7 +10849,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10646,7 +10865,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10662,7 +10881,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10678,7 +10897,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10694,7 +10913,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -10710,7 +10929,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -10726,7 +10945,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -10742,7 +10961,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -10758,7 +10977,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -10774,7 +10993,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -10790,7 +11009,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -10806,7 +11025,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -10822,7 +11041,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -10838,7 +11057,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -10854,7 +11073,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -10870,7 +11089,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -10886,7 +11105,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -10902,7 +11121,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -10918,7 +11137,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -10934,7 +11153,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -10950,7 +11169,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -10966,7 +11185,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -10982,7 +11201,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -10998,7 +11217,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11014,7 +11233,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11030,7 +11249,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11046,7 +11265,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11062,7 +11281,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11078,7 +11297,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11094,7 +11313,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11110,7 +11329,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11126,7 +11345,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -11142,7 +11361,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11158,7 +11377,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11174,7 +11393,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11190,7 +11409,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11206,7 +11425,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11222,7 +11441,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11238,7 +11457,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11254,7 +11473,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11270,7 +11489,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11286,7 +11505,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11302,7 +11521,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11318,7 +11537,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11334,7 +11553,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11350,7 +11569,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11366,7 +11585,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11382,7 +11601,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11398,7 +11617,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11414,7 +11633,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11430,7 +11649,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11446,7 +11665,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11462,7 +11681,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11478,7 +11697,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11494,7 +11713,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11510,7 +11729,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11526,7 +11745,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11542,7 +11761,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11558,7 +11777,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11574,7 +11793,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11590,7 +11809,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11606,7 +11825,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11622,7 +11841,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11638,7 +11857,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11654,7 +11873,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11670,7 +11889,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11686,7 +11905,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11702,7 +11921,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11718,7 +11937,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11734,7 +11953,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11750,7 +11969,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11766,7 +11985,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11782,7 +12001,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11798,7 +12017,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11814,7 +12033,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11830,7 +12049,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11846,7 +12065,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11862,7 +12081,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11878,7 +12097,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11894,7 +12113,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11910,7 +12129,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11926,7 +12145,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11942,7 +12161,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11958,7 +12177,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11974,7 +12193,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11990,7 +12209,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -12006,7 +12225,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12022,7 +12241,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12038,7 +12257,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12054,7 +12273,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12070,7 +12289,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12086,7 +12305,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12102,7 +12321,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12118,7 +12337,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12134,7 +12353,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12150,7 +12369,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12166,7 +12385,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12182,7 +12401,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12198,7 +12417,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12214,7 +12433,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12230,7 +12449,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12246,7 +12465,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12262,7 +12481,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40"/>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12278,7 +12497,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12294,7 +12513,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12310,7 +12529,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12326,7 +12545,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12342,7 +12561,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40"/>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12358,7 +12577,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12374,7 +12593,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12390,7 +12609,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12406,7 +12625,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12422,7 +12641,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12438,7 +12657,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
@@ -12454,7 +12673,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20"/>
       <c r="C494" s="13"/>
@@ -12470,7 +12689,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20"/>
       <c r="C495" s="13"/>
@@ -12486,7 +12705,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20"/>
       <c r="C496" s="13"/>
@@ -12502,7 +12721,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20"/>
       <c r="C497" s="13"/>
@@ -12518,7 +12737,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20"/>
       <c r="C498" s="13"/>
@@ -12534,7 +12753,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
       <c r="B499" s="20"/>
       <c r="C499" s="13"/>
@@ -12550,7 +12769,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="41"/>
       <c r="B500" s="15"/>
       <c r="C500" s="42"/>
@@ -12615,34 +12834,34 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12671,7 +12890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -12691,17 +12910,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12715,14 +12934,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12749,7 +12968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12775,7 +12994,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12801,7 +13020,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12827,7 +13046,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12853,7 +13072,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12879,7 +13098,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12905,7 +13124,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12931,7 +13150,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12951,7 +13170,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12971,7 +13190,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12991,7 +13210,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13012,7 +13231,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13033,7 +13252,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13054,7 +13273,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13075,7 +13294,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13096,7 +13315,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13117,7 +13336,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13138,7 +13357,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13159,7 +13378,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13180,7 +13399,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13201,7 +13420,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13222,7 +13441,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13243,7 +13462,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13264,7 +13483,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13285,7 +13504,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13306,7 +13525,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13327,7 +13546,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13348,7 +13567,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13369,7 +13588,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13390,7 +13609,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13411,7 +13630,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13420,7 +13639,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13429,7 +13648,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13438,7 +13657,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13447,7 +13666,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13456,7 +13675,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13465,7 +13684,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13474,7 +13693,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13483,7 +13702,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13492,7 +13711,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13501,7 +13720,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13510,7 +13729,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13519,7 +13738,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13528,7 +13747,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13537,7 +13756,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13546,7 +13765,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13555,7 +13774,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13564,7 +13783,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13573,7 +13792,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13582,7 +13801,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13591,7 +13810,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13600,7 +13819,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13609,7 +13828,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13618,7 +13837,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13627,7 +13846,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13636,7 +13855,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13645,7 +13864,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13654,7 +13873,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13663,7 +13882,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13672,7 +13891,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
